--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_96.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_96.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,704 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82), (32.44, 34.8)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(10.76, 23.6), (62.86, 68.74)]</t>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:06.100000', '0:01:24.780000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_14</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_255</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1270161290322581</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['A', 'A/7', 'A/b7', 'A/6']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02), (0.22, 3.44)]</t>
+          <t>[['D', 'D/5', 'D', 'D/5']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06), (25.48, 32.76)]</t>
+          <t>[('0:01:24.787426', '0:01:27.427993')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:30.564195', '0:01:33.919478')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_121</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0882943143812709</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj', 'G:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.38, 6.26)]</t>
+          <t>[['E', 'E/7', 'C#:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(41.58, 43.48)]</t>
+          <t>[('0:00:07.640000', '0:00:14')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:10.501791', '0:00:15.122562')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:09.780000', '0:00:14.360000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(43.68, 45.8)]</t>
+          <t>[('0:01:34.680000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:09.700000', '0:00:15.020000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(42.14, 44.36)]</t>
+          <t>[('0:00:16.520000', '0:00:25.400000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:06.880000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(17.9, 20.7)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(6.74, 13.46)]</t>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:02:04.920000', '0:02:09.320000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5833333333333334</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['C/3', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(17.38, 61.66)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(13.42, 53.02)]</t>
+          <t>[('0:01:16.585782', '0:01:18.064810')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.08760545100584036</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E', 'E/2']]</t>
-        </is>
+          <t>isophonics_128</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5789473684210527</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min/C', 'D:maj', 'D:maj/A']]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(59.162887, 65.559465)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(7.72, 9.86)]</t>
+          <t>[('0:00:10.634761', '0:00:15.986961')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1187888198757764</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(1.014823, 6.126439)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(46.6, 49.04)]</t>
+          <t>[('0:00:11.940000', '0:01:07.800000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>[('0:00:11.060000', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>isophonics_2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5625</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88)]</t>
+          <t>[('0:00:38.041000', '0:00:42.375000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(12.42, 27.08), (55.72, 64.64), (0.82, 6.76)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76), (35.6, 37.24), (8.46, 13.46)]</t>
+          <t>[('0:00:09.180000', '0:01:01')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:10.560000', '0:01:09.420000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>schubert-winterreise_88</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(5.78, 12.6)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(20.42, 23.5)]</t>
+          <t>[('0:00:09.240000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>[('0:00:05.780000', '0:00:21')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(93.26, 102.46)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(106.96, 119.34)]</t>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(40.38, 42.28)]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(1.54, 6.88)]</t>
+          <t>[('0:02:28.280000', '0:02:33.260000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_139</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_283</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1885964912280702</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'D', 'G']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'D', 'G']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(50.506553, 57.05458)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(63.629047, 74.101247)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
-        </is>
-      </c>
+          <t>[('0:02:41.980000', '0:02:46.620000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
